--- a/Code/Results/Cases/Case_3_113/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_113/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.390523866227625</v>
+        <v>0.4370183207923333</v>
       </c>
       <c r="C2">
-        <v>0.3275117454043937</v>
+        <v>0.1456436692411813</v>
       </c>
       <c r="D2">
-        <v>0.05737028336471894</v>
+        <v>0.01803184686794168</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3331546368041387</v>
+        <v>0.329951186985376</v>
       </c>
       <c r="G2">
-        <v>0.2307463242569057</v>
+        <v>0.1895888600195619</v>
       </c>
       <c r="H2">
-        <v>0.1739215093646038</v>
+        <v>0.3491823196671362</v>
       </c>
       <c r="I2">
-        <v>0.1192089281259499</v>
+        <v>0.2467801920303359</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.812846604180805</v>
+        <v>0.8963068853548322</v>
       </c>
       <c r="N2">
-        <v>0.5052720166094744</v>
+        <v>0.8469048393245515</v>
       </c>
       <c r="O2">
-        <v>0.8050960460944623</v>
+        <v>0.9836285398856717</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.221845258144555</v>
+        <v>0.3815432565033348</v>
       </c>
       <c r="C3">
-        <v>0.295609670478342</v>
+        <v>0.1346334646949856</v>
       </c>
       <c r="D3">
-        <v>0.05010153194010769</v>
+        <v>0.0157142760955864</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3005280903907419</v>
+        <v>0.3243132851729982</v>
       </c>
       <c r="G3">
-        <v>0.2065179641674746</v>
+        <v>0.1852243926718486</v>
       </c>
       <c r="H3">
-        <v>0.1673153421064058</v>
+        <v>0.3502317110953683</v>
       </c>
       <c r="I3">
-        <v>0.1186078693270716</v>
+        <v>0.2494007540077732</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.397357371847832</v>
+        <v>0.7974836322366485</v>
       </c>
       <c r="N3">
-        <v>0.5267499200919019</v>
+        <v>0.8554709768585127</v>
       </c>
       <c r="O3">
-        <v>0.7395919185467221</v>
+        <v>0.9763431708313419</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.117814477200625</v>
+        <v>0.3473270978791163</v>
       </c>
       <c r="C4">
-        <v>0.2758872879328749</v>
+        <v>0.1278258018828353</v>
       </c>
       <c r="D4">
-        <v>0.0456287036131684</v>
+        <v>0.01428656037625586</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2811056207939799</v>
+        <v>0.3211027321087698</v>
       </c>
       <c r="G4">
-        <v>0.1921683603710278</v>
+        <v>0.1827222410638285</v>
       </c>
       <c r="H4">
-        <v>0.1636039461546659</v>
+        <v>0.3510631554062442</v>
       </c>
       <c r="I4">
-        <v>0.1186624997749526</v>
+        <v>0.2511970575150393</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.150614989765216</v>
+        <v>0.7373160876097842</v>
       </c>
       <c r="N4">
-        <v>0.5407417143226851</v>
+        <v>0.8611170777563046</v>
       </c>
       <c r="O4">
-        <v>0.7012027575365494</v>
+        <v>0.9726300894495665</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.075307369793961</v>
+        <v>0.3333462572367978</v>
       </c>
       <c r="C5">
-        <v>0.2678183956579829</v>
+        <v>0.1250400002458889</v>
       </c>
       <c r="D5">
-        <v>0.043803385509257</v>
+        <v>0.01370360954528849</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2733331250142115</v>
+        <v>0.3198575141717583</v>
       </c>
       <c r="G5">
-        <v>0.1864426468838118</v>
+        <v>0.1817471358159892</v>
       </c>
       <c r="H5">
-        <v>0.1621737930892166</v>
+        <v>0.351449039243775</v>
       </c>
       <c r="I5">
-        <v>0.1187853727871158</v>
+        <v>0.2519760631294741</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.051814909418226</v>
+        <v>0.7129198994126114</v>
       </c>
       <c r="N5">
-        <v>0.5466410051906578</v>
+        <v>0.8635151640435481</v>
       </c>
       <c r="O5">
-        <v>0.6859874499966168</v>
+        <v>0.9713078736086089</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.068242286489095</v>
+        <v>0.3310225241911269</v>
       </c>
       <c r="C6">
-        <v>0.2664766892629586</v>
+        <v>0.1245767262903144</v>
       </c>
       <c r="D6">
-        <v>0.04350013123376328</v>
+        <v>0.01360674305572473</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2720507899998807</v>
+        <v>0.3196545570224956</v>
       </c>
       <c r="G6">
-        <v>0.1854989602972026</v>
+        <v>0.1815879067583026</v>
       </c>
       <c r="H6">
-        <v>0.1619411614274711</v>
+        <v>0.3515159578479796</v>
       </c>
       <c r="I6">
-        <v>0.1188116861116235</v>
+        <v>0.2521082522286946</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.035505428235396</v>
+        <v>0.7088761679725764</v>
       </c>
       <c r="N6">
-        <v>0.5476323727155332</v>
+        <v>0.8639192406961769</v>
       </c>
       <c r="O6">
-        <v>0.6834859544164829</v>
+        <v>0.9710998428155619</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.117241669268964</v>
+        <v>0.3471386973875497</v>
       </c>
       <c r="C7">
-        <v>0.2757785946832882</v>
+        <v>0.1277882782771229</v>
       </c>
       <c r="D7">
-        <v>0.04560409747408301</v>
+        <v>0.0142787030796967</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2810002362214945</v>
+        <v>0.3210856831983619</v>
       </c>
       <c r="G7">
-        <v>0.1920906614585931</v>
+        <v>0.182708910277384</v>
       </c>
       <c r="H7">
-        <v>0.1635843311715064</v>
+        <v>0.3510681689972159</v>
       </c>
       <c r="I7">
-        <v>0.1186637570765079</v>
+        <v>0.251207373290864</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.14927588782794</v>
+        <v>0.7369865832912978</v>
       </c>
       <c r="N7">
-        <v>0.540820480586099</v>
+        <v>0.8611490253139493</v>
       </c>
       <c r="O7">
-        <v>0.7009958637666074</v>
+        <v>0.9726114849990211</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.332460783215367</v>
+        <v>0.4179232999364046</v>
       </c>
       <c r="C8">
-        <v>0.3165410451664883</v>
+        <v>0.1418573456317347</v>
       </c>
       <c r="D8">
-        <v>0.05486596289500767</v>
+        <v>0.01723375177613207</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3217713804944466</v>
+        <v>0.3279550854337643</v>
       </c>
       <c r="G8">
-        <v>0.2222764790735354</v>
+        <v>0.188047040929618</v>
       </c>
       <c r="H8">
-        <v>0.1715693805771537</v>
+        <v>0.349505321048305</v>
       </c>
       <c r="I8">
-        <v>0.1189100589856125</v>
+        <v>0.2476448385593706</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.667618511000796</v>
+        <v>0.8621231874885638</v>
       </c>
       <c r="N8">
-        <v>0.5125077891279872</v>
+        <v>0.8497782790161068</v>
       </c>
       <c r="O8">
-        <v>0.7821105196938589</v>
+        <v>0.9809586139130175</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.750719269285099</v>
+        <v>0.5554566037923792</v>
       </c>
       <c r="C9">
-        <v>0.3953080445238868</v>
+        <v>0.1690597435406573</v>
       </c>
       <c r="D9">
-        <v>0.07295747339474445</v>
+        <v>0.02298960407211581</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4071111249614674</v>
+        <v>0.3434218496292445</v>
       </c>
       <c r="G9">
-        <v>0.2861676130786321</v>
+        <v>0.1999313500453042</v>
       </c>
       <c r="H9">
-        <v>0.1901794107799759</v>
+        <v>0.3479250376580865</v>
       </c>
       <c r="I9">
-        <v>0.1230435772040721</v>
+        <v>0.2421488489211789</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.769769336983188</v>
+        <v>1.111840077166363</v>
       </c>
       <c r="N9">
-        <v>0.4635846188295858</v>
+        <v>0.8305434282869086</v>
       </c>
       <c r="O9">
-        <v>0.9572512359141001</v>
+        <v>1.003372882909559</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.055466474337436</v>
+        <v>0.6556653054749688</v>
       </c>
       <c r="C10">
-        <v>0.4522890024959167</v>
+        <v>0.1887959826371741</v>
       </c>
       <c r="D10">
-        <v>0.08621468240104946</v>
+        <v>0.02719294997913835</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4739250941913866</v>
+        <v>0.3560082519636083</v>
       </c>
       <c r="G10">
-        <v>0.3367646211359698</v>
+        <v>0.2095366136913412</v>
       </c>
       <c r="H10">
-        <v>0.2059777425258318</v>
+        <v>0.3476691837253156</v>
       </c>
       <c r="I10">
-        <v>0.1287467496534944</v>
+        <v>0.2390253356731158</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.665407977473706</v>
+        <v>1.298347311598121</v>
       </c>
       <c r="N10">
-        <v>0.4319613284626627</v>
+        <v>0.8182748265545143</v>
       </c>
       <c r="O10">
-        <v>1.098093375861055</v>
+        <v>1.023549226272138</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.19345666742214</v>
+        <v>0.7010589684568345</v>
       </c>
       <c r="C11">
-        <v>0.4779617735414661</v>
+        <v>0.1977176067964024</v>
       </c>
       <c r="D11">
-        <v>0.09223929107353257</v>
+        <v>0.02909928513680882</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5054218434435995</v>
+        <v>0.3620011265766223</v>
       </c>
       <c r="G11">
-        <v>0.3607768534648557</v>
+        <v>0.214098364499975</v>
       </c>
       <c r="H11">
-        <v>0.2137074024657579</v>
+        <v>0.3477494248012647</v>
       </c>
       <c r="I11">
-        <v>0.132031797712024</v>
+        <v>0.2378042147153749</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.101754123450178</v>
+        <v>1.383945086060464</v>
       </c>
       <c r="N11">
-        <v>0.4185753400906691</v>
+        <v>0.8130973428523447</v>
       </c>
       <c r="O11">
-        <v>1.165403175799156</v>
+        <v>1.033538417855965</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.245604441976752</v>
+        <v>0.7182195657812258</v>
       </c>
       <c r="C12">
-        <v>0.4876409457173168</v>
+        <v>0.2010875994075718</v>
       </c>
       <c r="D12">
-        <v>0.09451972543595133</v>
+        <v>0.02982029423309029</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5175270708903597</v>
+        <v>0.3643089797782579</v>
       </c>
       <c r="G12">
-        <v>0.3700319862455501</v>
+        <v>0.2158535882154666</v>
       </c>
       <c r="H12">
-        <v>0.2167201117310071</v>
+        <v>0.3478080842125166</v>
       </c>
       <c r="I12">
-        <v>0.13338582299302</v>
+        <v>0.2373706417982326</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.27230493767243</v>
+        <v>1.416474499327634</v>
       </c>
       <c r="N12">
-        <v>0.413654764631012</v>
+        <v>0.811194751693904</v>
       </c>
       <c r="O12">
-        <v>1.191414250493523</v>
+        <v>1.037438009158592</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.234378485611785</v>
+        <v>0.7145250363815876</v>
       </c>
       <c r="C13">
-        <v>0.4855583874192462</v>
+        <v>0.2003621911852065</v>
       </c>
       <c r="D13">
-        <v>0.0940286378491848</v>
+        <v>0.02966505184129886</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5149117342682032</v>
+        <v>0.3638102300237591</v>
       </c>
       <c r="G13">
-        <v>0.3680311799385265</v>
+        <v>0.2154743313000012</v>
       </c>
       <c r="H13">
-        <v>0.2160673306627388</v>
+        <v>0.347794193391465</v>
       </c>
       <c r="I13">
-        <v>0.1330891276060413</v>
+        <v>0.237462735090979</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.235315267781445</v>
+        <v>1.409463464764613</v>
       </c>
       <c r="N13">
-        <v>0.4147078330526242</v>
+        <v>0.811601929051541</v>
       </c>
       <c r="O13">
-        <v>1.185788089148502</v>
+        <v>1.036592958439115</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.197749121972777</v>
+        <v>0.7024713704132637</v>
       </c>
       <c r="C14">
-        <v>0.4787589844549416</v>
+        <v>0.1979950288972248</v>
       </c>
       <c r="D14">
-        <v>0.09242692369845429</v>
+        <v>0.02915862086415189</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5064140575840028</v>
+        <v>0.362190223533517</v>
       </c>
       <c r="G14">
-        <v>0.3615349087255026</v>
+        <v>0.2142422101068036</v>
       </c>
       <c r="H14">
-        <v>0.2139534964963303</v>
+        <v>0.3477536841033668</v>
       </c>
       <c r="I14">
-        <v>0.1321409217357967</v>
+        <v>0.2377679657970937</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.115671075821197</v>
+        <v>1.386618947836041</v>
       </c>
       <c r="N14">
-        <v>0.4181675233310997</v>
+        <v>0.8129396530461221</v>
       </c>
       <c r="O14">
-        <v>1.167532304214291</v>
+        <v>1.033856894997427</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.175298255446251</v>
+        <v>0.695084333485454</v>
       </c>
       <c r="C15">
-        <v>0.4745883734362053</v>
+        <v>0.1965439662506299</v>
       </c>
       <c r="D15">
-        <v>0.09144569934730384</v>
+        <v>0.02884830146239636</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5012328008787676</v>
+        <v>0.3612029357081781</v>
       </c>
       <c r="G15">
-        <v>0.357577492988483</v>
+        <v>0.2134911232119947</v>
       </c>
       <c r="H15">
-        <v>0.2126701074805339</v>
+        <v>0.3477325530472228</v>
       </c>
       <c r="I15">
-        <v>0.131574794149131</v>
+        <v>0.2379586874096233</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.04311784579879</v>
+        <v>1.372641256110356</v>
       </c>
       <c r="N15">
-        <v>0.4203061352085484</v>
+        <v>0.8137666015929241</v>
       </c>
       <c r="O15">
-        <v>1.15641993304996</v>
+        <v>1.03219620997649</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.046434515130414</v>
+        <v>0.6526947423390652</v>
       </c>
       <c r="C16">
-        <v>0.4506056912773886</v>
+        <v>0.1882117703253812</v>
       </c>
       <c r="D16">
-        <v>0.0858208326329617</v>
+        <v>0.02706824606654834</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4718905100671336</v>
+        <v>0.3556219857392691</v>
       </c>
       <c r="G16">
-        <v>0.335216968069318</v>
+        <v>0.2092423734374478</v>
       </c>
       <c r="H16">
-        <v>0.2054841441269133</v>
+        <v>0.3476678963703108</v>
       </c>
       <c r="I16">
-        <v>0.1285468461989154</v>
+        <v>0.239109168374263</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.637565426993163</v>
+        <v>1.292769065456994</v>
       </c>
       <c r="N16">
-        <v>0.4328566646258949</v>
+        <v>0.8186213059955989</v>
       </c>
       <c r="O16">
-        <v>1.093764374295631</v>
+        <v>1.022912751502218</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.967208221242117</v>
+        <v>0.6266399712175712</v>
       </c>
       <c r="C17">
-        <v>0.4358252497526109</v>
+        <v>0.1830855492529508</v>
       </c>
       <c r="D17">
-        <v>0.08236856405211057</v>
+        <v>0.02597472436740844</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4541855368107832</v>
+        <v>0.3522667408038274</v>
       </c>
       <c r="G17">
-        <v>0.3217672463392205</v>
+        <v>0.2066852472207756</v>
       </c>
       <c r="H17">
-        <v>0.2012199668782415</v>
+        <v>0.347678592357255</v>
       </c>
       <c r="I17">
-        <v>0.1268733823718264</v>
+        <v>0.2398661986892385</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.396906879753544</v>
+        <v>1.243968193227659</v>
       </c>
       <c r="N17">
-        <v>0.4408155670079523</v>
+        <v>0.8217028547773353</v>
       </c>
       <c r="O17">
-        <v>1.056194948669656</v>
+        <v>1.017425547213293</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.921580111620358</v>
+        <v>0.6116359897241068</v>
       </c>
       <c r="C18">
-        <v>0.4273010816769158</v>
+        <v>0.180131783879574</v>
       </c>
       <c r="D18">
-        <v>0.08038233952402862</v>
+        <v>0.02534521759680786</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4441046014981325</v>
+        <v>0.3503620452121012</v>
       </c>
       <c r="G18">
-        <v>0.3141237367276801</v>
+        <v>0.2052325447420316</v>
       </c>
       <c r="H18">
-        <v>0.1988179259040379</v>
+        <v>0.3477032522637273</v>
       </c>
       <c r="I18">
-        <v>0.1259751384810421</v>
+        <v>0.2403204202004723</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.261123306457719</v>
+        <v>1.215969836846995</v>
       </c>
       <c r="N18">
-        <v>0.4454871541785508</v>
+        <v>0.8235132665859766</v>
       </c>
       <c r="O18">
-        <v>1.03488721151399</v>
+        <v>1.01434575777219</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.906121389855997</v>
+        <v>0.6065528569719731</v>
       </c>
       <c r="C19">
-        <v>0.4244111983822165</v>
+        <v>0.1791307890714506</v>
       </c>
       <c r="D19">
-        <v>0.07970974038479994</v>
+        <v>0.02513198573875997</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4407084184960297</v>
+        <v>0.3497214664337704</v>
       </c>
       <c r="G19">
-        <v>0.311551107546066</v>
+        <v>0.2047437871564597</v>
       </c>
       <c r="H19">
-        <v>0.1980131099525977</v>
+        <v>0.3477147804670295</v>
       </c>
       <c r="I19">
-        <v>0.1256817461700805</v>
+        <v>0.2404774369441718</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.215571885841825</v>
+        <v>1.20650199609662</v>
       </c>
       <c r="N19">
-        <v>0.4470848363789557</v>
+        <v>0.8241327658930118</v>
       </c>
       <c r="O19">
-        <v>1.027722907913983</v>
+        <v>1.013316090363958</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.975648211944247</v>
+        <v>0.6294154158145773</v>
       </c>
       <c r="C20">
-        <v>0.4374010611966526</v>
+        <v>0.1836317948658746</v>
       </c>
       <c r="D20">
-        <v>0.08273612318457424</v>
+        <v>0.02609118805009558</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4560595198275834</v>
+        <v>0.3526213087939283</v>
       </c>
       <c r="G20">
-        <v>0.3231892975720143</v>
+        <v>0.2069555845268951</v>
       </c>
       <c r="H20">
-        <v>0.2016686066998119</v>
+        <v>0.3476755382689447</v>
       </c>
       <c r="I20">
-        <v>0.1270447987288605</v>
+        <v>0.2397836652276197</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.422245100042105</v>
+        <v>1.249155771832221</v>
       </c>
       <c r="N20">
-        <v>0.4399585803280317</v>
+        <v>0.8213708873770571</v>
       </c>
       <c r="O20">
-        <v>1.060162719557951</v>
+        <v>1.018001769997511</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.208511071784699</v>
+        <v>0.706012622593164</v>
       </c>
       <c r="C21">
-        <v>0.4807573538987526</v>
+        <v>0.1986905531739751</v>
       </c>
       <c r="D21">
-        <v>0.09289741297295251</v>
+        <v>0.0293073961348469</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5089050294955371</v>
+        <v>0.3626650139312702</v>
       </c>
       <c r="G21">
-        <v>0.3634384529141812</v>
+        <v>0.214603358707933</v>
       </c>
       <c r="H21">
-        <v>0.2145719911647319</v>
+        <v>0.34776481532937</v>
       </c>
       <c r="I21">
-        <v>0.1324163529814193</v>
+        <v>0.2376775285712576</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.150658309182361</v>
+        <v>1.393325748859965</v>
       </c>
       <c r="N21">
-        <v>0.4171472676668913</v>
+        <v>0.8125451568724458</v>
       </c>
       <c r="O21">
-        <v>1.172879807704817</v>
+        <v>1.034657368112022</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.360071098577464</v>
+        <v>0.7559036464068072</v>
       </c>
       <c r="C22">
-        <v>0.5088403108173338</v>
+        <v>0.2084830255089685</v>
       </c>
       <c r="D22">
-        <v>0.09953271754751825</v>
+        <v>0.03140423094724554</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5444917332206174</v>
+        <v>0.3694534790837238</v>
       </c>
       <c r="G22">
-        <v>0.3907001053897687</v>
+        <v>0.2197636535275507</v>
       </c>
       <c r="H22">
-        <v>0.223508588908885</v>
+        <v>0.3479879641443517</v>
       </c>
       <c r="I22">
-        <v>0.1365745857835527</v>
+        <v>0.2364691943033179</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.6585093947849</v>
+        <v>1.488225079222843</v>
       </c>
       <c r="N22">
-        <v>0.4031052210546733</v>
+        <v>0.8071151490845025</v>
       </c>
       <c r="O22">
-        <v>1.249623503860562</v>
+        <v>1.046224291973516</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.279244362722977</v>
+        <v>0.7292918625634002</v>
       </c>
       <c r="C23">
-        <v>0.493877909193543</v>
+        <v>0.2032612117068595</v>
       </c>
       <c r="D23">
-        <v>0.09599190558240878</v>
+        <v>0.03028559669435538</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5253952900758421</v>
+        <v>0.3658098054603229</v>
       </c>
       <c r="G23">
-        <v>0.3760554805582217</v>
+        <v>0.2169946350954035</v>
       </c>
       <c r="H23">
-        <v>0.2186901314362757</v>
+        <v>0.3478537865356799</v>
       </c>
       <c r="I23">
-        <v>0.1342920369375769</v>
+        <v>0.2370986828545796</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.384074242327443</v>
+        <v>1.437511359176924</v>
       </c>
       <c r="N23">
-        <v>0.4105191531464527</v>
+        <v>0.8099823147669909</v>
       </c>
       <c r="O23">
-        <v>1.208361700474455</v>
+        <v>1.03998834877541</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.971832739909956</v>
+        <v>0.628160714284121</v>
       </c>
       <c r="C24">
-        <v>0.4366887195045308</v>
+        <v>0.1833848578604034</v>
       </c>
       <c r="D24">
-        <v>0.08256995427404945</v>
+        <v>0.02603853739043416</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4552119886423611</v>
+        <v>0.3524609329843855</v>
       </c>
       <c r="G24">
-        <v>0.3225461126668137</v>
+        <v>0.2068333107713443</v>
       </c>
       <c r="H24">
-        <v>0.2014656230433047</v>
+        <v>0.3476768613652013</v>
       </c>
       <c r="I24">
-        <v>0.1269671032977762</v>
+        <v>0.239820919449766</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.410781755165161</v>
+        <v>1.246810287669803</v>
       </c>
       <c r="N24">
-        <v>0.4403457256410235</v>
+        <v>0.8215208490197696</v>
       </c>
       <c r="O24">
-        <v>1.05836798677322</v>
+        <v>1.017741026473004</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.637993170092585</v>
+        <v>0.5183928856901616</v>
       </c>
       <c r="C25">
-        <v>0.3741401877325927</v>
+        <v>0.1617435946427861</v>
       </c>
       <c r="D25">
-        <v>0.06806983640527875</v>
+        <v>0.02143684382159705</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3833664994014114</v>
+        <v>0.3390233599465304</v>
       </c>
       <c r="G25">
-        <v>0.2683033194000757</v>
+        <v>0.196563624607613</v>
       </c>
       <c r="H25">
-        <v>0.1847969696147516</v>
+        <v>0.3481936029024695</v>
       </c>
       <c r="I25">
-        <v>0.1214916392592187</v>
+        <v>0.2434755146256151</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.459393419053413</v>
+        <v>1.043780880576335</v>
       </c>
       <c r="N25">
-        <v>0.4760825582124681</v>
+        <v>0.8354194818040241</v>
       </c>
       <c r="O25">
-        <v>0.9079192162282368</v>
+        <v>0.9966596229540983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_113/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_113/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4370183207923333</v>
+        <v>1.39052386622771</v>
       </c>
       <c r="C2">
-        <v>0.1456436692411813</v>
+        <v>0.3275117454039389</v>
       </c>
       <c r="D2">
-        <v>0.01803184686794168</v>
+        <v>0.05737028336486816</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.329951186985376</v>
+        <v>0.3331546368041387</v>
       </c>
       <c r="G2">
-        <v>0.1895888600195619</v>
+        <v>0.230746324256927</v>
       </c>
       <c r="H2">
-        <v>0.3491823196671362</v>
+        <v>0.1739215093646038</v>
       </c>
       <c r="I2">
-        <v>0.2467801920303359</v>
+        <v>0.1192089281259605</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8963068853548322</v>
+        <v>2.812846604180834</v>
       </c>
       <c r="N2">
-        <v>0.8469048393245515</v>
+        <v>0.5052720166094744</v>
       </c>
       <c r="O2">
-        <v>0.9836285398856717</v>
+        <v>0.8050960460943912</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3815432565033348</v>
+        <v>1.221845258144441</v>
       </c>
       <c r="C3">
-        <v>0.1346334646949856</v>
+        <v>0.2956096704781714</v>
       </c>
       <c r="D3">
-        <v>0.0157142760955864</v>
+        <v>0.05010153193988742</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3243132851729982</v>
+        <v>0.3005280903907419</v>
       </c>
       <c r="G3">
-        <v>0.1852243926718486</v>
+        <v>0.2065179641675243</v>
       </c>
       <c r="H3">
-        <v>0.3502317110953683</v>
+        <v>0.167315342106285</v>
       </c>
       <c r="I3">
-        <v>0.2494007540077732</v>
+        <v>0.1186078693270751</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7974836322366485</v>
+        <v>2.397357371847832</v>
       </c>
       <c r="N3">
-        <v>0.8554709768585127</v>
+        <v>0.5267499200918948</v>
       </c>
       <c r="O3">
-        <v>0.9763431708313419</v>
+        <v>0.7395919185467221</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3473270978791163</v>
+        <v>1.117814477200795</v>
       </c>
       <c r="C4">
-        <v>0.1278258018828353</v>
+        <v>0.2758872879329033</v>
       </c>
       <c r="D4">
-        <v>0.01428656037625586</v>
+        <v>0.04562870361305471</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3211027321087698</v>
+        <v>0.2811056207939799</v>
       </c>
       <c r="G4">
-        <v>0.1827222410638285</v>
+        <v>0.192168360371042</v>
       </c>
       <c r="H4">
-        <v>0.3510631554062442</v>
+        <v>0.1636039461546659</v>
       </c>
       <c r="I4">
-        <v>0.2511970575150393</v>
+        <v>0.1186624997749348</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7373160876097842</v>
+        <v>2.150614989765216</v>
       </c>
       <c r="N4">
-        <v>0.8611170777563046</v>
+        <v>0.540741714322742</v>
       </c>
       <c r="O4">
-        <v>0.9726300894495665</v>
+        <v>0.7012027575365494</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3333462572367978</v>
+        <v>1.075307369794103</v>
       </c>
       <c r="C5">
-        <v>0.1250400002458889</v>
+        <v>0.2678183956581677</v>
       </c>
       <c r="D5">
-        <v>0.01370360954528849</v>
+        <v>0.04380338550922858</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3198575141717583</v>
+        <v>0.2733331250142115</v>
       </c>
       <c r="G5">
-        <v>0.1817471358159892</v>
+        <v>0.1864426468838474</v>
       </c>
       <c r="H5">
-        <v>0.351449039243775</v>
+        <v>0.1621737930892166</v>
       </c>
       <c r="I5">
-        <v>0.2519760631294741</v>
+        <v>0.1187853727871282</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7129198994126114</v>
+        <v>2.051814909418212</v>
       </c>
       <c r="N5">
-        <v>0.8635151640435481</v>
+        <v>0.5466410051906578</v>
       </c>
       <c r="O5">
-        <v>0.9713078736086089</v>
+        <v>0.6859874499966594</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3310225241911269</v>
+        <v>1.068242286489095</v>
       </c>
       <c r="C6">
-        <v>0.1245767262903144</v>
+        <v>0.2664766892629302</v>
       </c>
       <c r="D6">
-        <v>0.01360674305572473</v>
+        <v>0.04350013123388408</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3196545570224956</v>
+        <v>0.2720507899998736</v>
       </c>
       <c r="G6">
-        <v>0.1815879067583026</v>
+        <v>0.1854989602972026</v>
       </c>
       <c r="H6">
-        <v>0.3515159578479796</v>
+        <v>0.1619411614274711</v>
       </c>
       <c r="I6">
-        <v>0.2521082522286946</v>
+        <v>0.118811686111636</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7088761679725764</v>
+        <v>2.035505428235382</v>
       </c>
       <c r="N6">
-        <v>0.8639192406961769</v>
+        <v>0.5476323727155759</v>
       </c>
       <c r="O6">
-        <v>0.9710998428155619</v>
+        <v>0.6834859544164829</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3471386973875497</v>
+        <v>1.117241669269077</v>
       </c>
       <c r="C7">
-        <v>0.1277882782771229</v>
+        <v>0.2757785946835156</v>
       </c>
       <c r="D7">
-        <v>0.0142787030796967</v>
+        <v>0.04560409747396932</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3210856831983619</v>
+        <v>0.2810002362215087</v>
       </c>
       <c r="G7">
-        <v>0.182708910277384</v>
+        <v>0.1920906614585931</v>
       </c>
       <c r="H7">
-        <v>0.3510681689972159</v>
+        <v>0.1635843311716201</v>
       </c>
       <c r="I7">
-        <v>0.251207373290864</v>
+        <v>0.1186637570765079</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7369865832912978</v>
+        <v>2.149275887827969</v>
       </c>
       <c r="N7">
-        <v>0.8611490253139493</v>
+        <v>0.5408204805860493</v>
       </c>
       <c r="O7">
-        <v>0.9726114849990211</v>
+        <v>0.7009958637666642</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4179232999364046</v>
+        <v>1.332460783215453</v>
       </c>
       <c r="C8">
-        <v>0.1418573456317347</v>
+        <v>0.316541045166673</v>
       </c>
       <c r="D8">
-        <v>0.01723375177613207</v>
+        <v>0.05486596289499346</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3279550854337643</v>
+        <v>0.3217713804944466</v>
       </c>
       <c r="G8">
-        <v>0.188047040929618</v>
+        <v>0.2222764790735354</v>
       </c>
       <c r="H8">
-        <v>0.349505321048305</v>
+        <v>0.1715693805771537</v>
       </c>
       <c r="I8">
-        <v>0.2476448385593706</v>
+        <v>0.1189100589856125</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8621231874885638</v>
+        <v>2.667618511000768</v>
       </c>
       <c r="N8">
-        <v>0.8497782790161068</v>
+        <v>0.5125077891279872</v>
       </c>
       <c r="O8">
-        <v>0.9809586139130175</v>
+        <v>0.7821105196938021</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5554566037923792</v>
+        <v>1.750719269285042</v>
       </c>
       <c r="C9">
-        <v>0.1690597435406573</v>
+        <v>0.3953080445236026</v>
       </c>
       <c r="D9">
-        <v>0.02298960407211581</v>
+        <v>0.07295747339463787</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3434218496292445</v>
+        <v>0.4071111249614745</v>
       </c>
       <c r="G9">
-        <v>0.1999313500453042</v>
+        <v>0.286167613078689</v>
       </c>
       <c r="H9">
-        <v>0.3479250376580865</v>
+        <v>0.1901794107798622</v>
       </c>
       <c r="I9">
-        <v>0.2421488489211789</v>
+        <v>0.1230435772040863</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.111840077166363</v>
+        <v>3.769769336983202</v>
       </c>
       <c r="N9">
-        <v>0.8305434282869086</v>
+        <v>0.4635846188295787</v>
       </c>
       <c r="O9">
-        <v>1.003372882909559</v>
+        <v>0.9572512359141001</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6556653054749688</v>
+        <v>2.055466474337379</v>
       </c>
       <c r="C10">
-        <v>0.1887959826371741</v>
+        <v>0.4522890024959167</v>
       </c>
       <c r="D10">
-        <v>0.02719294997913835</v>
+        <v>0.08621468240104235</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3560082519636083</v>
+        <v>0.4739250941914008</v>
       </c>
       <c r="G10">
-        <v>0.2095366136913412</v>
+        <v>0.3367646211359698</v>
       </c>
       <c r="H10">
-        <v>0.3476691837253156</v>
+        <v>0.2059777425259455</v>
       </c>
       <c r="I10">
-        <v>0.2390253356731158</v>
+        <v>0.1287467496534838</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.298347311598121</v>
+        <v>4.66540797747372</v>
       </c>
       <c r="N10">
-        <v>0.8182748265545143</v>
+        <v>0.4319613284626627</v>
       </c>
       <c r="O10">
-        <v>1.023549226272138</v>
+        <v>1.098093375861026</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7010589684568345</v>
+        <v>2.193456667422197</v>
       </c>
       <c r="C11">
-        <v>0.1977176067964024</v>
+        <v>0.4779617735414092</v>
       </c>
       <c r="D11">
-        <v>0.02909928513680882</v>
+        <v>0.09223929107353257</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3620011265766223</v>
+        <v>0.5054218434436279</v>
       </c>
       <c r="G11">
-        <v>0.214098364499975</v>
+        <v>0.3607768534649409</v>
       </c>
       <c r="H11">
-        <v>0.3477494248012647</v>
+        <v>0.2137074024658716</v>
       </c>
       <c r="I11">
-        <v>0.2378042147153749</v>
+        <v>0.1320317977120382</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.383945086060464</v>
+        <v>5.101754123450164</v>
       </c>
       <c r="N11">
-        <v>0.8130973428523447</v>
+        <v>0.4185753400906052</v>
       </c>
       <c r="O11">
-        <v>1.033538417855965</v>
+        <v>1.165403175799099</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7182195657812258</v>
+        <v>2.245604441976582</v>
       </c>
       <c r="C12">
-        <v>0.2010875994075718</v>
+        <v>0.4876409457172315</v>
       </c>
       <c r="D12">
-        <v>0.02982029423309029</v>
+        <v>0.09451972543595133</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3643089797782579</v>
+        <v>0.517527070890381</v>
       </c>
       <c r="G12">
-        <v>0.2158535882154666</v>
+        <v>0.3700319862455217</v>
       </c>
       <c r="H12">
-        <v>0.3478080842125166</v>
+        <v>0.2167201117310071</v>
       </c>
       <c r="I12">
-        <v>0.2373706417982326</v>
+        <v>0.1333858229930058</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.416474499327634</v>
+        <v>5.272304937672473</v>
       </c>
       <c r="N12">
-        <v>0.811194751693904</v>
+        <v>0.4136547646310049</v>
       </c>
       <c r="O12">
-        <v>1.037438009158592</v>
+        <v>1.19141425049358</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7145250363815876</v>
+        <v>2.234378485611899</v>
       </c>
       <c r="C13">
-        <v>0.2003621911852065</v>
+        <v>0.485558387419502</v>
       </c>
       <c r="D13">
-        <v>0.02966505184129886</v>
+        <v>0.09402863784929849</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3638102300237591</v>
+        <v>0.5149117342682032</v>
       </c>
       <c r="G13">
-        <v>0.2154743313000012</v>
+        <v>0.3680311799385123</v>
       </c>
       <c r="H13">
-        <v>0.347794193391465</v>
+        <v>0.2160673306627388</v>
       </c>
       <c r="I13">
-        <v>0.237462735090979</v>
+        <v>0.1330891276060413</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.409463464764613</v>
+        <v>5.235315267781431</v>
       </c>
       <c r="N13">
-        <v>0.811601929051541</v>
+        <v>0.414707833052617</v>
       </c>
       <c r="O13">
-        <v>1.036592958439115</v>
+        <v>1.185788089148502</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7024713704132637</v>
+        <v>2.197749121972777</v>
       </c>
       <c r="C14">
-        <v>0.1979950288972248</v>
+        <v>0.4787589844549984</v>
       </c>
       <c r="D14">
-        <v>0.02915862086415189</v>
+        <v>0.09242692369846139</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.362190223533517</v>
+        <v>0.5064140575839957</v>
       </c>
       <c r="G14">
-        <v>0.2142422101068036</v>
+        <v>0.3615349087254316</v>
       </c>
       <c r="H14">
-        <v>0.3477536841033668</v>
+        <v>0.2139534964963303</v>
       </c>
       <c r="I14">
-        <v>0.2377679657970937</v>
+        <v>0.1321409217358109</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.386618947836041</v>
+        <v>5.115671075821197</v>
       </c>
       <c r="N14">
-        <v>0.8129396530461221</v>
+        <v>0.4181675233310926</v>
       </c>
       <c r="O14">
-        <v>1.033856894997427</v>
+        <v>1.167532304214291</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.695084333485454</v>
+        <v>2.175298255446251</v>
       </c>
       <c r="C15">
-        <v>0.1965439662506299</v>
+        <v>0.4745883734362621</v>
       </c>
       <c r="D15">
-        <v>0.02884830146239636</v>
+        <v>0.09144569934741043</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3612029357081781</v>
+        <v>0.5012328008787748</v>
       </c>
       <c r="G15">
-        <v>0.2134911232119947</v>
+        <v>0.3575774929884403</v>
       </c>
       <c r="H15">
-        <v>0.3477325530472228</v>
+        <v>0.2126701074805339</v>
       </c>
       <c r="I15">
-        <v>0.2379586874096233</v>
+        <v>0.1315747941491274</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.372641256110356</v>
+        <v>5.043117845798847</v>
       </c>
       <c r="N15">
-        <v>0.8137666015929241</v>
+        <v>0.4203061352086053</v>
       </c>
       <c r="O15">
-        <v>1.03219620997649</v>
+        <v>1.156419933049932</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6526947423390652</v>
+        <v>2.046434515130301</v>
       </c>
       <c r="C16">
-        <v>0.1882117703253812</v>
+        <v>0.4506056912773317</v>
       </c>
       <c r="D16">
-        <v>0.02706824606654834</v>
+        <v>0.08582083263301143</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3556219857392691</v>
+        <v>0.4718905100671336</v>
       </c>
       <c r="G16">
-        <v>0.2092423734374478</v>
+        <v>0.3352169680693038</v>
       </c>
       <c r="H16">
-        <v>0.3476678963703108</v>
+        <v>0.2054841441269133</v>
       </c>
       <c r="I16">
-        <v>0.239109168374263</v>
+        <v>0.1285468461989154</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.292769065456994</v>
+        <v>4.637565426993177</v>
       </c>
       <c r="N16">
-        <v>0.8186213059955989</v>
+        <v>0.4328566646259446</v>
       </c>
       <c r="O16">
-        <v>1.022912751502218</v>
+        <v>1.093764374295631</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6266399712175712</v>
+        <v>1.967208221242089</v>
       </c>
       <c r="C17">
-        <v>0.1830855492529508</v>
+        <v>0.4358252497523551</v>
       </c>
       <c r="D17">
-        <v>0.02597472436740844</v>
+        <v>0.08236856405210347</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3522667408038274</v>
+        <v>0.4541855368107903</v>
       </c>
       <c r="G17">
-        <v>0.2066852472207756</v>
+        <v>0.3217672463392063</v>
       </c>
       <c r="H17">
-        <v>0.347678592357255</v>
+        <v>0.2012199668782415</v>
       </c>
       <c r="I17">
-        <v>0.2398661986892385</v>
+        <v>0.12687338237183</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.243968193227659</v>
+        <v>4.396906879753573</v>
       </c>
       <c r="N17">
-        <v>0.8217028547773353</v>
+        <v>0.4408155670079026</v>
       </c>
       <c r="O17">
-        <v>1.017425547213293</v>
+        <v>1.056194948669656</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6116359897241068</v>
+        <v>1.921580111620358</v>
       </c>
       <c r="C18">
-        <v>0.180131783879574</v>
+        <v>0.4273010816769442</v>
       </c>
       <c r="D18">
-        <v>0.02534521759680786</v>
+        <v>0.08038233952401441</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3503620452121012</v>
+        <v>0.4441046014981325</v>
       </c>
       <c r="G18">
-        <v>0.2052325447420316</v>
+        <v>0.3141237367276091</v>
       </c>
       <c r="H18">
-        <v>0.3477032522637273</v>
+        <v>0.1988179259040379</v>
       </c>
       <c r="I18">
-        <v>0.2403204202004723</v>
+        <v>0.1259751384810279</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.215969836846995</v>
+        <v>4.261123306457705</v>
       </c>
       <c r="N18">
-        <v>0.8235132665859766</v>
+        <v>0.4454871541786005</v>
       </c>
       <c r="O18">
-        <v>1.01434575777219</v>
+        <v>1.03488721151399</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6065528569719731</v>
+        <v>1.906121389855969</v>
       </c>
       <c r="C19">
-        <v>0.1791307890714506</v>
+        <v>0.4244111983822165</v>
       </c>
       <c r="D19">
-        <v>0.02513198573875997</v>
+        <v>0.07970974038491363</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3497214664337704</v>
+        <v>0.4407084184960368</v>
       </c>
       <c r="G19">
-        <v>0.2047437871564597</v>
+        <v>0.3115511075459523</v>
       </c>
       <c r="H19">
-        <v>0.3477147804670295</v>
+        <v>0.198013109952484</v>
       </c>
       <c r="I19">
-        <v>0.2404774369441718</v>
+        <v>0.1256817461700663</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.20650199609662</v>
+        <v>4.215571885841783</v>
       </c>
       <c r="N19">
-        <v>0.8241327658930118</v>
+        <v>0.4470848363790125</v>
       </c>
       <c r="O19">
-        <v>1.013316090363958</v>
+        <v>1.027722907913926</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6294154158145773</v>
+        <v>1.975648211944247</v>
       </c>
       <c r="C20">
-        <v>0.1836317948658746</v>
+        <v>0.4374010611969652</v>
       </c>
       <c r="D20">
-        <v>0.02609118805009558</v>
+        <v>0.08273612318456713</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3526213087939283</v>
+        <v>0.4560595198275763</v>
       </c>
       <c r="G20">
-        <v>0.2069555845268951</v>
+        <v>0.3231892975720143</v>
       </c>
       <c r="H20">
-        <v>0.3476755382689447</v>
+        <v>0.2016686066998119</v>
       </c>
       <c r="I20">
-        <v>0.2397836652276197</v>
+        <v>0.1270447987288605</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.249155771832221</v>
+        <v>4.422245100042119</v>
       </c>
       <c r="N20">
-        <v>0.8213708873770571</v>
+        <v>0.4399585803280388</v>
       </c>
       <c r="O20">
-        <v>1.018001769997511</v>
+        <v>1.060162719557923</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.706012622593164</v>
+        <v>2.208511071784756</v>
       </c>
       <c r="C21">
-        <v>0.1986905531739751</v>
+        <v>0.4807573538987526</v>
       </c>
       <c r="D21">
-        <v>0.0293073961348469</v>
+        <v>0.09289741297280329</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3626650139312702</v>
+        <v>0.50890502949553</v>
       </c>
       <c r="G21">
-        <v>0.214603358707933</v>
+        <v>0.3634384529141812</v>
       </c>
       <c r="H21">
-        <v>0.34776481532937</v>
+        <v>0.2145719911647177</v>
       </c>
       <c r="I21">
-        <v>0.2376775285712576</v>
+        <v>0.1324163529814193</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.393325748859965</v>
+        <v>5.150658309182347</v>
       </c>
       <c r="N21">
-        <v>0.8125451568724458</v>
+        <v>0.4171472676668841</v>
       </c>
       <c r="O21">
-        <v>1.034657368112022</v>
+        <v>1.172879807704817</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7559036464068072</v>
+        <v>2.360071098577521</v>
       </c>
       <c r="C22">
-        <v>0.2084830255089685</v>
+        <v>0.5088403108171917</v>
       </c>
       <c r="D22">
-        <v>0.03140423094724554</v>
+        <v>0.09953271754739035</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3694534790837238</v>
+        <v>0.5444917332206103</v>
       </c>
       <c r="G22">
-        <v>0.2197636535275507</v>
+        <v>0.3907001053898114</v>
       </c>
       <c r="H22">
-        <v>0.3479879641443517</v>
+        <v>0.223508588908885</v>
       </c>
       <c r="I22">
-        <v>0.2364691943033179</v>
+        <v>0.1365745857835492</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.488225079222843</v>
+        <v>5.658509394784829</v>
       </c>
       <c r="N22">
-        <v>0.8071151490845025</v>
+        <v>0.4031052210546662</v>
       </c>
       <c r="O22">
-        <v>1.046224291973516</v>
+        <v>1.24962350386059</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7292918625634002</v>
+        <v>2.279244362722977</v>
       </c>
       <c r="C23">
-        <v>0.2032612117068595</v>
+        <v>0.4938779091940546</v>
       </c>
       <c r="D23">
-        <v>0.03028559669435538</v>
+        <v>0.09599190558245851</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3658098054603229</v>
+        <v>0.525395290075835</v>
       </c>
       <c r="G23">
-        <v>0.2169946350954035</v>
+        <v>0.3760554805582785</v>
       </c>
       <c r="H23">
-        <v>0.3478537865356799</v>
+        <v>0.2186901314362757</v>
       </c>
       <c r="I23">
-        <v>0.2370986828545796</v>
+        <v>0.1342920369375946</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.437511359176924</v>
+        <v>5.384074242327472</v>
       </c>
       <c r="N23">
-        <v>0.8099823147669909</v>
+        <v>0.4105191531464385</v>
       </c>
       <c r="O23">
-        <v>1.03998834877541</v>
+        <v>1.208361700474569</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.628160714284121</v>
+        <v>1.971832739909985</v>
       </c>
       <c r="C24">
-        <v>0.1833848578604034</v>
+        <v>0.4366887195046729</v>
       </c>
       <c r="D24">
-        <v>0.02603853739043416</v>
+        <v>0.08256995427416314</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3524609329843855</v>
+        <v>0.4552119886423611</v>
       </c>
       <c r="G24">
-        <v>0.2068333107713443</v>
+        <v>0.3225461126668705</v>
       </c>
       <c r="H24">
-        <v>0.3476768613652013</v>
+        <v>0.201465623043191</v>
       </c>
       <c r="I24">
-        <v>0.239820919449766</v>
+        <v>0.1269671032977762</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.246810287669803</v>
+        <v>4.41078175516509</v>
       </c>
       <c r="N24">
-        <v>0.8215208490197696</v>
+        <v>0.4403457256410306</v>
       </c>
       <c r="O24">
-        <v>1.017741026473004</v>
+        <v>1.058367986773277</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5183928856901616</v>
+        <v>1.637993170092557</v>
       </c>
       <c r="C25">
-        <v>0.1617435946427861</v>
+        <v>0.3741401877325927</v>
       </c>
       <c r="D25">
-        <v>0.02143684382159705</v>
+        <v>0.0680698364050869</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3390233599465304</v>
+        <v>0.3833664994014327</v>
       </c>
       <c r="G25">
-        <v>0.196563624607613</v>
+        <v>0.2683033194000046</v>
       </c>
       <c r="H25">
-        <v>0.3481936029024695</v>
+        <v>0.1847969696148795</v>
       </c>
       <c r="I25">
-        <v>0.2434755146256151</v>
+        <v>0.1214916392592151</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.043780880576335</v>
+        <v>3.459393419053384</v>
       </c>
       <c r="N25">
-        <v>0.8354194818040241</v>
+        <v>0.4760825582125392</v>
       </c>
       <c r="O25">
-        <v>0.9966596229540983</v>
+        <v>0.9079192162282652</v>
       </c>
     </row>
   </sheetData>
